--- a/biology/Botanique/Plantain_des_sables/Plantain_des_sables.xlsx
+++ b/biology/Botanique/Plantain_des_sables/Plantain_des_sables.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Plantago scabra
 Plantago scabra, le Plantain des sables, Plantain scabre ou herbe aux puces est une plante herbacée de la famille des Plantaginaceae. Elle pousse dans les endroits sablonneux comme les lits de rivières asséchés.
@@ -512,7 +524,9 @@
           <t>À propos du nom scientifique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les auteurs sont généralement d'accord pour considérer trois noms scientifiques comme synonymes :
 Plantago arenaria Waldst. &amp; Kit. 1801
@@ -550,9 +564,14 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Caractéristiques
-Organes reproducteurs
-La floraison a lieu d'avril à juin sur le littoral méditerranéen[1].
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Organes reproducteurs
+La floraison a lieu d'avril à juin sur le littoral méditerranéen.
 Couleur dominante des fleurs : blanc
 Inflorescence : épi simple
 Sexualité : hermaphrodite
